--- a/PolicyEffectiveness/0-DayLag_WyomingPolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_WyomingPolicy.xlsx
@@ -2019,7 +2019,7 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>37</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>40</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>41</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2467,7 +2467,7 @@
         <v>43</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2523,7 +2523,7 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2579,7 +2579,7 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2635,7 +2635,7 @@
         <v>46</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2691,7 +2691,7 @@
         <v>47</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2747,7 +2747,7 @@
         <v>48</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2803,7 +2803,7 @@
         <v>49</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2859,7 +2859,7 @@
         <v>50</v>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2915,7 +2915,7 @@
         <v>51</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2971,7 +2971,7 @@
         <v>52</v>
       </c>
       <c r="B37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3027,7 +3027,7 @@
         <v>53</v>
       </c>
       <c r="B38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3083,7 +3083,7 @@
         <v>54</v>
       </c>
       <c r="B39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3139,7 +3139,7 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3195,7 +3195,7 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3251,7 +3251,7 @@
         <v>57</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>58</v>
       </c>
       <c r="B43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3363,7 +3363,7 @@
         <v>59</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3419,7 +3419,7 @@
         <v>60</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3475,7 +3475,7 @@
         <v>61</v>
       </c>
       <c r="B46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3531,7 +3531,7 @@
         <v>62</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3587,7 +3587,7 @@
         <v>63</v>
       </c>
       <c r="B48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3643,7 +3643,7 @@
         <v>64</v>
       </c>
       <c r="B49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3699,7 +3699,7 @@
         <v>65</v>
       </c>
       <c r="B50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3755,7 +3755,7 @@
         <v>66</v>
       </c>
       <c r="B51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3811,7 +3811,7 @@
         <v>67</v>
       </c>
       <c r="B52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3867,7 +3867,7 @@
         <v>68</v>
       </c>
       <c r="B53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3923,7 +3923,7 @@
         <v>69</v>
       </c>
       <c r="B54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3979,7 +3979,7 @@
         <v>70</v>
       </c>
       <c r="B55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4035,7 +4035,7 @@
         <v>71</v>
       </c>
       <c r="B56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4091,7 +4091,7 @@
         <v>72</v>
       </c>
       <c r="B57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4147,7 +4147,7 @@
         <v>73</v>
       </c>
       <c r="B58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4203,7 +4203,7 @@
         <v>74</v>
       </c>
       <c r="B59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4259,7 +4259,7 @@
         <v>75</v>
       </c>
       <c r="B60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4315,7 +4315,7 @@
         <v>76</v>
       </c>
       <c r="B61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4371,7 +4371,7 @@
         <v>77</v>
       </c>
       <c r="B62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4427,7 +4427,7 @@
         <v>78</v>
       </c>
       <c r="B63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4483,7 +4483,7 @@
         <v>79</v>
       </c>
       <c r="B64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -4539,7 +4539,7 @@
         <v>80</v>
       </c>
       <c r="B65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         <v>81</v>
       </c>
       <c r="B66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -4651,7 +4651,7 @@
         <v>82</v>
       </c>
       <c r="B67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -4707,7 +4707,7 @@
         <v>83</v>
       </c>
       <c r="B68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4763,7 +4763,7 @@
         <v>84</v>
       </c>
       <c r="B69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="B70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>86</v>
       </c>
       <c r="B71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>87</v>
       </c>
       <c r="B72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>88</v>
       </c>
       <c r="B73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>89</v>
       </c>
       <c r="B74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>90</v>
       </c>
       <c r="B75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>91</v>
       </c>
       <c r="B76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>92</v>
       </c>
       <c r="B77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0</v>
